--- a/취업지원실/정재녕_구인기업 리스트.xlsx
+++ b/취업지원실/정재녕_구인기업 리스트.xlsx
@@ -41,19 +41,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  구인 기업 조사 리스트 - </x:t>
-    </x:r>
+    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/46752305?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%9B%B9%ED%8D%BC%EB%B8%94%EB%A6%AC%EC%85%94&amp;listno=14&amp;sc=631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼블리싱 및 디자인 경험자 / UI화면 기획서 작성 가능자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(주)티젠소프트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기 시흥시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(주)인라이브</x:t>
+  </x:si>
+  <x:si>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
           <x:rPr hs:extension="1">
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="20"/>
+            <x:sz val="12"/>
             <x:color rgb="ffc00000"/>
-            <x:b val="1"/>
             <hs:size val="100"/>
             <hs:ratio val="100"/>
             <hs:spacing val="0"/>
@@ -63,22 +74,20 @@
         <mc:Fallback>
           <x:rPr>
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="20"/>
+            <x:sz val="12"/>
             <x:color rgb="ffc00000"/>
-            <x:b val="1"/>
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t>20</x:t>
+      <x:t xml:space="preserve"> l</x:t>
     </x:r>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
           <x:rPr hs:extension="1">
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="20"/>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
+            <x:sz val="12"/>
+            <x:color rgb="ff3f3f3f"/>
             <hs:size val="100"/>
             <hs:ratio val="100"/>
             <hs:spacing val="0"/>
@@ -88,23 +97,13 @@
         <mc:Fallback>
           <x:rPr>
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="20"/>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
+            <x:sz val="12"/>
+            <x:color rgb="ff3f3f3f"/>
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t xml:space="preserve"> DAYs PROJECT</x:t>
+      <x:t xml:space="preserve"> 작성일 :  2025년  월   일          </x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>2. 내가 갈 수 있는 기업 (자격요건 확인 / 반신반의)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">* 본 과제지는 그린컴퓨터아카데미 훈련생을 위해 특별히 작성되었으며, 고용노동부 평가자료로 활용될 예정이오니, 작성 후 취업지원실에 제출 바랍니다.  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/34457709?Oem_Code=C&amp;sc=68</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -188,100 +187,19 @@
     <x:t>* 1차 이력서 클리닉 전까지 최소 5군데 이상 찾아오시고, 최종 이력서 제출 시 취업사이트에 인재등록 하신 후, 타겟 회사(Target)를 지정하여 작성해 오시면 됩니다!</x:t>
   </x:si>
   <x:si>
-    <x:t>http://www.ziten.co.kr/html/</x:t>
+    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/46846662?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%9B%B9%ED%8D%BC%EB%B8%94%EB%A6%AC%EC%85%94&amp;listno=46&amp;sc=631</x:t>
   </x:si>
   <x:si>
     <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="12"/>
-            <x:color rgb="ffc00000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="12"/>
-            <x:color rgb="ffc00000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> l</x:t>
+      <x:t xml:space="preserve">  구인 기업 조사 리스트 - </x:t>
     </x:r>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
           <x:rPr hs:extension="1">
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="12"/>
-            <x:color rgb="ff3f3f3f"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="12"/>
-            <x:color rgb="ff3f3f3f"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> 작성일 :  2025년  월   일          </x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>협의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>샘플</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신입</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">급여 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조사일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>㈜짙은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사명</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="15"/>
-            <x:color rgb="ffc8c8c8"/>
+            <x:sz val="20"/>
+            <x:color rgb="ffc00000"/>
             <x:b val="1"/>
             <hs:size val="100"/>
             <hs:ratio val="100"/>
@@ -292,20 +210,20 @@
         <mc:Fallback>
           <x:rPr>
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="15"/>
-            <x:color rgb="ffc8c8c8"/>
+            <x:sz val="20"/>
+            <x:color rgb="ffc00000"/>
             <x:b val="1"/>
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t>■</x:t>
+      <x:t>20</x:t>
     </x:r>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
           <x:rPr hs:extension="1">
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="15"/>
+            <x:sz val="20"/>
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
             <hs:size val="100"/>
@@ -317,17 +235,17 @@
         <mc:Fallback>
           <x:rPr>
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="15"/>
+            <x:sz val="20"/>
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t xml:space="preserve"> 1일 1기업 찾아보기</x:t>
+      <x:t xml:space="preserve"> DAYs PROJECT</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>3. 입사 가능성 높은 기업</x:t>
+    <x:t xml:space="preserve">* 본 과제지는 그린컴퓨터아카데미 훈련생을 위해 특별히 작성되었으며, 고용노동부 평가자료로 활용될 예정이오니, 작성 후 취업지원실에 제출 바랍니다.  </x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -387,10 +305,113 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>시멘틱,웹접근성,반응형 웹에 대한 이해도</x:t>
+    <x:t>3. 입사 가능성 높은 기업</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 내가 가고 싶은 기업 (가능성 낮음)</x:t>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="15"/>
+            <x:color rgb="ffc8c8c8"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="15"/>
+            <x:color rgb="ffc8c8c8"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>■</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="15"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="15"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t xml:space="preserve"> 1일 1기업 찾아보기</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">급여 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조사일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>협의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>마감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 내가 갈 수 있는 기업 (자격요건 확인 / 반신반의)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Illustrator, Photoshop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잡코리아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공고(URL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취업사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우대사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이력서 + 포트폴리오</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹퍼블리싱, HTML 코딩 및 웹 표준화</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -441,25 +462,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>우대사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공고(URL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울시 강남구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취업사이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잡코리아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영상제작, 기획</x:t>
+    <x:t>1. 내가 가고 싶은 기업 (가능성 낮음)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -518,6 +521,30 @@
       <x:t>(자격증, 경력유무 등)</x:t>
     </x:r>
   </x:si>
+  <x:si>
+    <x:t>https://www.inlive.co.kr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UX/UI 개발, 반응형 웹사이트 구축, 콘텐츠 업데이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력무관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tigensoft.co.kr/index.action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신입/경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울시 금천구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹/모바일 UI 퍼블리싱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이력서 + 인성역량검사 첨부희망</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -527,7 +554,7 @@
     <x:numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
     <x:numFmt numFmtId="165" formatCode="000\-0000\-0000"/>
   </x:numFmts>
-  <x:fonts count="31">
+  <x:fonts count="32">
     <x:font>
       <x:name val="Malgun Gothic"/>
       <x:sz val="11"/>
@@ -747,31 +774,6 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
-          <hs:underlineType val="1"/>
-          <hs:underlineShape val="solid"/>
-          <hs:underlineColor rgb="ff0000ff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -822,10 +824,59 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
-          <x:sz val="20"/>
+          <x:sz val="12"/>
           <x:color rgb="ffc00000"/>
-          <x:b val="1"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -835,9 +886,8 @@
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
-          <x:sz val="20"/>
+          <x:sz val="12"/>
           <x:color rgb="ffc00000"/>
-          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -845,9 +895,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff3f3f3f"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -857,9 +906,8 @@
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff3f3f3f"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -927,8 +975,9 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
+          <x:sz val="20"/>
           <x:color rgb="ffc00000"/>
+          <x:b val="1"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -938,8 +987,9 @@
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
+          <x:sz val="20"/>
           <x:color rgb="ffc00000"/>
+          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -947,8 +997,9 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff3f3f3f"/>
+          <x:sz val="20"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -958,8 +1009,9 @@
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff3f3f3f"/>
+          <x:sz val="20"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1249,7 +1301,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="61">
+  <x:cellXfs count="63">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1745,19 +1797,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1771,13 +1810,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1821,18 +1860,18 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1843,6 +1882,45 @@
     <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2114,7 +2192,7 @@
   <x:dimension ref="A1:AK230"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E9" activeCellId="0" sqref="E9:E9"/>
+      <x:selection activeCell="I10" activeCellId="0" sqref="I10:I10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2192,7 +2270,7 @@
       <x:c r="L2" s="7"/>
       <x:c r="M2" s="7"/>
       <x:c r="N2" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O2" s="9"/>
       <x:c r="P2" s="9"/>
@@ -2222,7 +2300,7 @@
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="10"/>
       <x:c r="C3" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="12"/>
       <x:c r="E3" s="13"/>
@@ -2301,11 +2379,11 @@
     <x:row r="5" spans="1:37" ht="19.5" customHeight="1">
       <x:c r="A5" s="1"/>
       <x:c r="B5" s="1"/>
-      <x:c r="C5" s="60" t="s">
-        <x:v>21</x:v>
+      <x:c r="C5" s="59" t="s">
+        <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
+      <x:c r="D5" s="58"/>
+      <x:c r="E5" s="58"/>
       <x:c r="F5" s="1"/>
       <x:c r="G5" s="1"/>
       <x:c r="H5" s="1"/>
@@ -2317,7 +2395,7 @@
       <x:c r="N5" s="18"/>
       <x:c r="O5" s="18"/>
       <x:c r="P5" s="18" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q5" s="18"/>
       <x:c r="R5" s="1"/>
@@ -2344,9 +2422,9 @@
     <x:row r="6" spans="1:37" ht="19.5" customHeight="1">
       <x:c r="A6" s="1"/>
       <x:c r="B6" s="1"/>
-      <x:c r="C6" s="59"/>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
+      <x:c r="C6" s="58"/>
+      <x:c r="D6" s="58"/>
+      <x:c r="E6" s="58"/>
       <x:c r="F6" s="1"/>
       <x:c r="G6" s="1"/>
       <x:c r="H6" s="1"/>
@@ -2358,7 +2436,7 @@
       <x:c r="N6" s="18"/>
       <x:c r="O6" s="18"/>
       <x:c r="P6" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q6" s="18"/>
       <x:c r="R6" s="1"/>
@@ -2425,49 +2503,49 @@
       <x:c r="A8" s="21"/>
       <x:c r="B8" s="21"/>
       <x:c r="C8" s="22" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D8" s="23" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F8" s="24" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G8" s="25" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H8" s="25" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I8" s="51" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J8" s="52" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K8" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="L8" s="26" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H8" s="25" t="s">
-        <x:v>4</x:v>
+      <x:c r="M8" s="26" t="s">
+        <x:v>22</x:v>
       </x:c>
-      <x:c r="I8" s="52" t="s">
-        <x:v>34</x:v>
+      <x:c r="N8" s="53" t="s">
+        <x:v>29</x:v>
       </x:c>
-      <x:c r="J8" s="53" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K8" s="23" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="L8" s="26" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M8" s="26" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N8" s="54" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="O8" s="55" t="s">
+      <x:c r="O8" s="54" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="P8" s="56" t="s">
-        <x:v>5</x:v>
+      <x:c r="P8" s="55" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q8" s="27" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="R8" s="21"/>
       <x:c r="S8" s="21"/>
@@ -2497,43 +2575,45 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D9" s="30">
-        <x:v>44301</x:v>
+        <x:v>44302</x:v>
       </x:c>
       <x:c r="E9" s="31" t="s">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
-      <x:c r="F9" s="51" t="s">
-        <x:v>7</x:v>
+      <x:c r="F9" s="61" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G9" s="31" t="s">
-        <x:v>29</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="32" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I9" s="31" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
-      <x:c r="J9" s="31"/>
+      <x:c r="J9" s="31" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="K9" s="33" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L9" s="34" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M9" s="34">
-        <x:v>44390</x:v>
+        <x:v>44353</x:v>
       </x:c>
       <x:c r="N9" s="35" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
-      <x:c r="O9" s="36" t="s">
-        <x:v>3</x:v>
+      <x:c r="O9" s="60" t="s">
+        <x:v>0</x:v>
       </x:c>
-      <x:c r="P9" s="36"/>
-      <x:c r="Q9" s="37" t="s">
-        <x:v>11</x:v>
+      <x:c r="P9" s="36" t="s">
+        <x:v>31</x:v>
       </x:c>
+      <x:c r="Q9" s="37"/>
       <x:c r="R9" s="28"/>
       <x:c r="S9" s="28"/>
       <x:c r="T9" s="28"/>
@@ -2561,19 +2641,43 @@
       <x:c r="C10" s="29">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D10" s="30"/>
-      <x:c r="E10" s="31"/>
-      <x:c r="F10" s="31"/>
-      <x:c r="G10" s="31"/>
-      <x:c r="H10" s="32"/>
+      <x:c r="D10" s="30">
+        <x:v>45764</x:v>
+      </x:c>
+      <x:c r="E10" s="31" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F10" s="61" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G10" s="31" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H10" s="32" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="I10" s="31"/>
-      <x:c r="J10" s="31"/>
-      <x:c r="K10" s="31"/>
-      <x:c r="L10" s="34"/>
-      <x:c r="M10" s="34"/>
-      <x:c r="N10" s="35"/>
-      <x:c r="O10" s="38"/>
-      <x:c r="P10" s="38"/>
+      <x:c r="J10" s="31" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K10" s="31" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L10" s="34" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M10" s="34">
+        <x:v>45829</x:v>
+      </x:c>
+      <x:c r="N10" s="35" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O10" s="62" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="P10" s="36" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="Q10" s="37"/>
       <x:c r="R10" s="28"/>
       <x:c r="S10" s="28"/>
@@ -3338,7 +3442,7 @@
       <x:c r="A29" s="46"/>
       <x:c r="B29" s="46"/>
       <x:c r="C29" s="47" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="48"/>
       <x:c r="E29" s="48"/>
@@ -3379,7 +3483,7 @@
       <x:c r="A30" s="46"/>
       <x:c r="B30" s="46"/>
       <x:c r="C30" s="47" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D30" s="48"/>
       <x:c r="E30" s="48"/>
@@ -3417,24 +3521,24 @@
       <x:c r="AK30" s="46"/>
     </x:row>
     <x:row r="31" spans="1:37" ht="33" customHeight="1">
-      <x:c r="A31" s="58"/>
-      <x:c r="B31" s="59"/>
-      <x:c r="C31" s="59"/>
-      <x:c r="D31" s="59"/>
-      <x:c r="E31" s="59"/>
-      <x:c r="F31" s="59"/>
-      <x:c r="G31" s="59"/>
-      <x:c r="H31" s="59"/>
-      <x:c r="I31" s="59"/>
-      <x:c r="J31" s="58"/>
-      <x:c r="K31" s="59"/>
-      <x:c r="L31" s="59"/>
-      <x:c r="M31" s="59"/>
-      <x:c r="N31" s="59"/>
-      <x:c r="O31" s="59"/>
-      <x:c r="P31" s="58"/>
-      <x:c r="Q31" s="59"/>
-      <x:c r="R31" s="59"/>
+      <x:c r="A31" s="57"/>
+      <x:c r="B31" s="58"/>
+      <x:c r="C31" s="58"/>
+      <x:c r="D31" s="58"/>
+      <x:c r="E31" s="58"/>
+      <x:c r="F31" s="58"/>
+      <x:c r="G31" s="58"/>
+      <x:c r="H31" s="58"/>
+      <x:c r="I31" s="58"/>
+      <x:c r="J31" s="57"/>
+      <x:c r="K31" s="58"/>
+      <x:c r="L31" s="58"/>
+      <x:c r="M31" s="58"/>
+      <x:c r="N31" s="58"/>
+      <x:c r="O31" s="58"/>
+      <x:c r="P31" s="57"/>
+      <x:c r="Q31" s="58"/>
+      <x:c r="R31" s="58"/>
       <x:c r="S31" s="1"/>
       <x:c r="T31" s="1"/>
       <x:c r="U31" s="1"/>
@@ -3458,8 +3562,8 @@
     <x:row r="32" spans="1:37" ht="24.75" customHeight="1">
       <x:c r="A32" s="1"/>
       <x:c r="B32" s="1"/>
-      <x:c r="C32" s="57" t="s">
-        <x:v>25</x:v>
+      <x:c r="C32" s="56" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D32" s="1"/>
       <x:c r="E32" s="1"/>
@@ -3499,8 +3603,8 @@
     <x:row r="33" spans="1:37" ht="24.75" customHeight="1">
       <x:c r="A33" s="1"/>
       <x:c r="B33" s="1"/>
-      <x:c r="C33" s="57" t="s">
-        <x:v>1</x:v>
+      <x:c r="C33" s="56" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D33" s="1"/>
       <x:c r="E33" s="1"/>
@@ -3540,8 +3644,8 @@
     <x:row r="34" spans="1:37" ht="24.75" customHeight="1">
       <x:c r="A34" s="1"/>
       <x:c r="B34" s="1"/>
-      <x:c r="C34" s="57" t="s">
-        <x:v>22</x:v>
+      <x:c r="C34" s="56" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D34" s="1"/>
       <x:c r="E34" s="1"/>
@@ -11228,13 +11332,16 @@
     <x:mergeCell ref="C5:E6"/>
   </x:mergeCells>
   <x:hyperlinks>
-    <x:hyperlink ref="F9:F9" r:id="rId1"/>
+    <x:hyperlink ref="O9:O9" r:id="rId1"/>
+    <x:hyperlink ref="F9:F9" r:id="rId2"/>
+    <x:hyperlink ref="O10:O10" r:id="rId3"/>
+    <x:hyperlink ref="F10:F10" r:id="rId4"/>
   </x:hyperlinks>
   <x:pageMargins left="0.39347222447395324707" right="0.39347222447395324707" top="0.39347222447395324707" bottom="0.39347222447395324707" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="62" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;C&amp;"맑은 고딕,Regular"01+030(사)한국취업능력개발원 김혜경 상담사 C00000l01+030 H : 010-2432-8215 C00000l01+030 T : 02-3409-8216 C00000l000000 01+030F : 02-3409-8218 C00000l 01+030hancareer@nate.com</x:oddFooter>
   </x:headerFooter>
-  <x:legacyDrawing r:id="rId2"/>
+  <x:legacyDrawing r:id="rId5"/>
 </x:worksheet>
 </file>
--- a/취업지원실/정재녕_구인기업 리스트.xlsx
+++ b/취업지원실/정재녕_구인기업 리스트.xlsx
@@ -41,153 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <x:si>
-    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/46752305?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%9B%B9%ED%8D%BC%EB%B8%94%EB%A6%AC%EC%85%94&amp;listno=14&amp;sc=631</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼블리싱 및 디자인 경험자 / UI화면 기획서 작성 가능자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(주)티젠소프트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기 시흥시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(주)인라이브</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="12"/>
-            <x:color rgb="ffc00000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="12"/>
-            <x:color rgb="ffc00000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> l</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="12"/>
-            <x:color rgb="ff3f3f3f"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="12"/>
-            <x:color rgb="ff3f3f3f"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> 작성일 :  2025년  월   일          </x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="12"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="12"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve">직무내용
-</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="8"/>
-            <x:color rgb="ff757070"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="8"/>
-            <x:color rgb="ff757070"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>(광고, 총무, 영업 등)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">제출서류
-</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="Malgun Gothic"/>
-            <x:sz val="8"/>
-            <x:color rgb="ff808080"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="Malgun Gothic"/>
-            <x:sz val="8"/>
-            <x:color rgb="ff808080"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>(이력서, 포트폴리오 등)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>* 1차 이력서 클리닉 전까지 최소 5군데 이상 찾아오시고, 최종 이력서 제출 시 취업사이트에 인재등록 하신 후, 타겟 회사(Target)를 지정하여 작성해 오시면 됩니다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/46846662?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%9B%B9%ED%8D%BC%EB%B8%94%EB%A6%AC%EC%85%94&amp;listno=46&amp;sc=631</x:t>
+    <x:t>피스챌린지그룹(주)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -245,7 +101,164 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/46798830?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%9B%B9%ED%8D%BC%EB%B8%94%EB%A6%AC%EC%85%94&amp;listno=63&amp;sc=631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/46810387?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%9B%B9%ED%8D%BC%EB%B8%94%EB%A6%AC%EC%85%94&amp;listno=125&amp;sc=631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 1차 이력서 클리닉 전까지 최소 5군데 이상 찾아오시고, 최종 이력서 제출 시 취업사이트에 인재등록 하신 후, 타겟 회사(Target)를 지정하여 작성해 오시면 됩니다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tigensoft.co.kr/index.action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UX/UI 개발, 반응형 웹사이트 구축, 콘텐츠 업데이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/46865869?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%9B%B9%ED%8D%BC%EB%B8%94%EB%A6%AC%EC%85%94&amp;listno=20&amp;sc=631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/46752305?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%9B%B9%ED%8D%BC%EB%B8%94%EB%A6%AC%EC%85%94&amp;listno=14&amp;sc=631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/46886728?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%9B%B9%ED%8D%BC%EB%B8%94%EB%A6%AC%EC%85%94&amp;listno=96&amp;sc=631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.jobkorea.co.kr/Recruit/GI_Read/46846662?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%9B%B9%ED%8D%BC%EB%B8%94%EB%A6%AC%EC%85%94&amp;listno=46&amp;sc=631</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">* 본 과제지는 그린컴퓨터아카데미 훈련생을 위해 특별히 작성되었으며, 고용노동부 평가자료로 활용될 예정이오니, 작성 후 취업지원실에 제출 바랍니다.  </x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">제출서류
+</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Malgun Gothic"/>
+            <x:sz val="8"/>
+            <x:color rgb="ff808080"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Malgun Gothic"/>
+            <x:sz val="8"/>
+            <x:color rgb="ff808080"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>(이력서, 포트폴리오 등)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="12"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="12"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t xml:space="preserve">직무내용
+</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="8"/>
+            <x:color rgb="ff757070"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="8"/>
+            <x:color rgb="ff757070"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>(광고, 총무, 영업 등)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="15"/>
+            <x:color rgb="ffc8c8c8"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="15"/>
+            <x:color rgb="ffc8c8c8"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>■</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="15"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="15"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t xml:space="preserve"> 1일 1기업 찾아보기</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -308,14 +321,22 @@
     <x:t>3. 입사 가능성 높은 기업</x:t>
   </x:si>
   <x:si>
+    <x:t>웹/모바일 UI 퍼블리싱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 내가 갈 수 있는 기업 (자격요건 확인 / 반신반의)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼블리싱 및 디자인 경험자 / UI화면 기획서 작성 가능자</x:t>
+  </x:si>
+  <x:si>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
           <x:rPr hs:extension="1">
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="15"/>
-            <x:color rgb="ffc8c8c8"/>
-            <x:b val="1"/>
+            <x:sz val="12"/>
+            <x:color rgb="ffc00000"/>
             <hs:size val="100"/>
             <hs:ratio val="100"/>
             <hs:spacing val="0"/>
@@ -325,22 +346,20 @@
         <mc:Fallback>
           <x:rPr>
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="15"/>
-            <x:color rgb="ffc8c8c8"/>
-            <x:b val="1"/>
+            <x:sz val="12"/>
+            <x:color rgb="ffc00000"/>
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t>■</x:t>
+      <x:t xml:space="preserve"> l</x:t>
     </x:r>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
           <x:rPr hs:extension="1">
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="15"/>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
+            <x:sz val="12"/>
+            <x:color rgb="ff3f3f3f"/>
             <hs:size val="100"/>
             <hs:ratio val="100"/>
             <hs:spacing val="0"/>
@@ -350,32 +369,34 @@
         <mc:Fallback>
           <x:rPr>
             <x:rFont val="맑은 고딕"/>
-            <x:sz val="15"/>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
+            <x:sz val="12"/>
+            <x:color rgb="ff3f3f3f"/>
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t xml:space="preserve"> 1일 1기업 찾아보기</x:t>
+      <x:t xml:space="preserve"> 작성일 :  2025년  월   일          </x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">급여 </x:t>
+    <x:t>이력서 + 인성역량검사 첨부희망</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조사일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>협의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력</x:t>
   </x:si>
   <x:si>
     <x:t>비고</x:t>
   </x:si>
   <x:si>
-    <x:t>조사일</x:t>
-  </x:si>
-  <x:si>
     <x:t>회사명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>협의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> </x:t>
@@ -384,16 +405,37 @@
     <x:t>마감</x:t>
   </x:si>
   <x:si>
-    <x:t>경력</x:t>
+    <x:t xml:space="preserve">급여 </x:t>
   </x:si>
   <x:si>
-    <x:t>2. 내가 갈 수 있는 기업 (자격요건 확인 / 반신반의)</x:t>
+    <x:t>(주)티젠소프트</x:t>
   </x:si>
   <x:si>
-    <x:t>Illustrator, Photoshop</x:t>
+    <x:t>이력서 + 포트폴리오</x:t>
   </x:si>
   <x:si>
-    <x:t>홈페이지</x:t>
+    <x:t>http://peacechallenge.io/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(주)인라이브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기 시흥시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우대사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취업사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울시 금천구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신입/경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력무관</x:t>
   </x:si>
   <x:si>
     <x:t>잡코리아</x:t>
@@ -402,16 +444,13 @@
     <x:t>공고(URL)</x:t>
   </x:si>
   <x:si>
-    <x:t>취업사이트</x:t>
+    <x:t>홈페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>우대사항</x:t>
+    <x:t>서울시 서초구</x:t>
   </x:si>
   <x:si>
-    <x:t>이력서 + 포트폴리오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웹퍼블리싱, HTML 코딩 및 웹 표준화</x:t>
+    <x:t>Illustrator, Photoshop</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -462,7 +501,13 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>웹퍼블리싱, HTML 코딩 및 웹 표준화</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 내가 가고 싶은 기업 (가능성 낮음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이커머스 운영/개선 관련 프로젝트 수행 경험</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -525,25 +570,52 @@
     <x:t>https://www.inlive.co.kr/</x:t>
   </x:si>
   <x:si>
-    <x:t>UX/UI 개발, 반응형 웹사이트 구축, 콘텐츠 업데이트</x:t>
+    <x:t xml:space="preserve">포트폴리오 제출 </x:t>
   </x:si>
   <x:si>
-    <x:t>경력무관</x:t>
+    <x:t>웹 UI 퍼블리싱</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.tigensoft.co.kr/index.action</x:t>
+    <x:t>학력무관</x:t>
   </x:si>
   <x:si>
-    <x:t>신입/경력</x:t>
+    <x:t>UX/UI 개발 및 구현, 웹사이트 구축, 퍼블리싱</x:t>
   </x:si>
   <x:si>
-    <x:t>서울시 금천구</x:t>
+    <x:t>웹사이트 제작 /퍼블리싱</x:t>
   </x:si>
   <x:si>
-    <x:t>웹/모바일 UI 퍼블리싱</x:t>
+    <x:t>나인원랩스</x:t>
   </x:si>
   <x:si>
-    <x:t>이력서 + 인성역량검사 첨부희망</x:t>
+    <x:t>서울시 노원구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.nineonelabs.co.kr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사내규</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹에이전시 경력 / UX UI 디자인 경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이력서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://vlolv.net/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유앤유컴즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹 퍼블리싱 및 마크업 개발 경험</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브롤브(주)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울시 마포구</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -554,7 +626,7 @@
     <x:numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
     <x:numFmt numFmtId="165" formatCode="000\-0000\-0000"/>
   </x:numFmts>
-  <x:fonts count="32">
+  <x:fonts count="33">
     <x:font>
       <x:name val="Malgun Gothic"/>
       <x:sz val="11"/>
@@ -806,26 +878,6 @@
         <x:font hs:extension="1">
           <x:name val="Malgun Gothic"/>
           <x:sz val="10"/>
-          <x:color rgb="ff525252"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff525252"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="10"/>
           <x:color rgb="ff0000ff"/>
           <x:u/>
           <hs:underlineType val="1"/>
@@ -874,89 +926,9 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ffc00000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ffc00000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff3f3f3f"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff3f3f3f"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff757070"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff757070"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
           <x:name val="Malgun Gothic"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff808080"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff525252"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -966,8 +938,33 @@
       <mc:Fallback>
         <x:font>
           <x:name val="Malgun Gothic"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff808080"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff525252"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1018,6 +1015,66 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="8"/>
+          <x:color rgb="ff808080"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="8"/>
+          <x:color rgb="ff808080"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="8"/>
+          <x:color rgb="ff757070"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="8"/>
+          <x:color rgb="ff757070"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
           <x:sz val="15"/>
           <x:color rgb="ffc8c8c8"/>
@@ -1056,6 +1113,46 @@
           <x:sz val="15"/>
           <x:color rgb="ff000000"/>
           <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ffc00000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ffc00000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff3f3f3f"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff3f3f3f"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1301,7 +1398,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="63">
+  <x:cellXfs count="65">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1865,23 +1962,30 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="bottom"/>
-    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -1897,26 +2001,45 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -2192,7 +2315,7 @@
   <x:dimension ref="A1:AK230"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I10" activeCellId="0" sqref="I10:I10"/>
+      <x:selection activeCell="E14" activeCellId="0" sqref="E14:E14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2270,7 +2393,7 @@
       <x:c r="L2" s="7"/>
       <x:c r="M2" s="7"/>
       <x:c r="N2" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O2" s="9"/>
       <x:c r="P2" s="9"/>
@@ -2300,7 +2423,7 @@
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="10"/>
       <x:c r="C3" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="12"/>
       <x:c r="E3" s="13"/>
@@ -2379,11 +2502,11 @@
     <x:row r="5" spans="1:37" ht="19.5" customHeight="1">
       <x:c r="A5" s="1"/>
       <x:c r="B5" s="1"/>
-      <x:c r="C5" s="59" t="s">
+      <x:c r="C5" s="62" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="58"/>
-      <x:c r="E5" s="58"/>
+      <x:c r="D5" s="61"/>
+      <x:c r="E5" s="61"/>
       <x:c r="F5" s="1"/>
       <x:c r="G5" s="1"/>
       <x:c r="H5" s="1"/>
@@ -2395,7 +2518,7 @@
       <x:c r="N5" s="18"/>
       <x:c r="O5" s="18"/>
       <x:c r="P5" s="18" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q5" s="18"/>
       <x:c r="R5" s="1"/>
@@ -2422,9 +2545,9 @@
     <x:row r="6" spans="1:37" ht="19.5" customHeight="1">
       <x:c r="A6" s="1"/>
       <x:c r="B6" s="1"/>
-      <x:c r="C6" s="58"/>
-      <x:c r="D6" s="58"/>
-      <x:c r="E6" s="58"/>
+      <x:c r="C6" s="61"/>
+      <x:c r="D6" s="61"/>
+      <x:c r="E6" s="61"/>
       <x:c r="F6" s="1"/>
       <x:c r="G6" s="1"/>
       <x:c r="H6" s="1"/>
@@ -2436,7 +2559,7 @@
       <x:c r="N6" s="18"/>
       <x:c r="O6" s="18"/>
       <x:c r="P6" s="18" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q6" s="18"/>
       <x:c r="R6" s="1"/>
@@ -2503,49 +2626,49 @@
       <x:c r="A8" s="21"/>
       <x:c r="B8" s="21"/>
       <x:c r="C8" s="22" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="23" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E8" s="24" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="24" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G8" s="25" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H8" s="25" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I8" s="51" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J8" s="52" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="K8" s="23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L8" s="26" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M8" s="26" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N8" s="53" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O8" s="54" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P8" s="55" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q8" s="27" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="G8" s="25" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H8" s="25" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I8" s="51" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J8" s="52" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="K8" s="23" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="L8" s="26" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M8" s="26" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N8" s="53" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="O8" s="54" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="P8" s="55" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q8" s="27" t="s">
-        <x:v>16</x:v>
       </x:c>
       <x:c r="R8" s="21"/>
       <x:c r="S8" s="21"/>
@@ -2578,40 +2701,40 @@
         <x:v>44302</x:v>
       </x:c>
       <x:c r="E9" s="31" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F9" s="61" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F9" s="58" t="s">
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G9" s="31" t="s">
-        <x:v>3</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H9" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I9" s="31" t="s">
-        <x:v>32</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J9" s="31" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="K9" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L9" s="34" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="M9" s="34">
         <x:v>44353</x:v>
       </x:c>
       <x:c r="N9" s="35" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O9" s="60" t="s">
-        <x:v>0</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O9" s="57" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P9" s="36" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q9" s="37"/>
       <x:c r="R9" s="28"/>
@@ -2645,38 +2768,38 @@
         <x:v>45764</x:v>
       </x:c>
       <x:c r="E10" s="31" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F10" s="61" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F10" s="58" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G10" s="31" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H10" s="32" t="s">
-        <x:v>42</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I10" s="31"/>
       <x:c r="J10" s="31" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K10" s="31" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L10" s="34" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M10" s="34">
         <x:v>45829</x:v>
       </x:c>
       <x:c r="N10" s="35" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O10" s="62" t="s">
-        <x:v>9</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O10" s="59" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P10" s="36" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="Q10" s="37"/>
       <x:c r="R10" s="28"/>
@@ -2706,19 +2829,45 @@
       <x:c r="C11" s="29">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D11" s="30"/>
-      <x:c r="E11" s="31"/>
-      <x:c r="F11" s="31"/>
-      <x:c r="G11" s="31"/>
-      <x:c r="H11" s="32"/>
-      <x:c r="I11" s="31"/>
-      <x:c r="J11" s="31"/>
-      <x:c r="K11" s="31"/>
-      <x:c r="L11" s="34"/>
-      <x:c r="M11" s="34"/>
-      <x:c r="N11" s="35"/>
-      <x:c r="O11" s="38"/>
-      <x:c r="P11" s="38"/>
+      <x:c r="D11" s="30">
+        <x:v>45765</x:v>
+      </x:c>
+      <x:c r="E11" s="31" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F11" s="31" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G11" s="31" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H11" s="32" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I11" s="31" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J11" s="31" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K11" s="31" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L11" s="34" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M11" s="34">
+        <x:v>45832</x:v>
+      </x:c>
+      <x:c r="N11" s="35" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O11" s="38" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="P11" s="36" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="Q11" s="37"/>
       <x:c r="R11" s="28"/>
       <x:c r="S11" s="28"/>
@@ -2747,19 +2896,45 @@
       <x:c r="C12" s="29">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D12" s="30"/>
-      <x:c r="E12" s="31"/>
-      <x:c r="F12" s="31"/>
-      <x:c r="G12" s="31"/>
-      <x:c r="H12" s="32"/>
-      <x:c r="I12" s="31"/>
-      <x:c r="J12" s="31"/>
-      <x:c r="K12" s="31"/>
-      <x:c r="L12" s="34"/>
-      <x:c r="M12" s="34"/>
-      <x:c r="N12" s="35"/>
-      <x:c r="O12" s="36"/>
-      <x:c r="P12" s="36"/>
+      <x:c r="D12" s="30">
+        <x:v>45766</x:v>
+      </x:c>
+      <x:c r="E12" s="31" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F12" s="39" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G12" s="31" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H12" s="32" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I12" s="31" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J12" s="31" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K12" s="31" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L12" s="34" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M12" s="34">
+        <x:v>45821</x:v>
+      </x:c>
+      <x:c r="N12" s="35" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O12" s="38" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="P12" s="36" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="Q12" s="37"/>
       <x:c r="R12" s="28"/>
       <x:c r="S12" s="28"/>
@@ -2788,19 +2963,45 @@
       <x:c r="C13" s="29">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D13" s="30"/>
-      <x:c r="E13" s="31"/>
-      <x:c r="F13" s="39"/>
-      <x:c r="G13" s="31"/>
-      <x:c r="H13" s="32"/>
-      <x:c r="I13" s="31"/>
-      <x:c r="J13" s="31"/>
-      <x:c r="K13" s="31"/>
-      <x:c r="L13" s="34"/>
-      <x:c r="M13" s="34"/>
-      <x:c r="N13" s="35"/>
-      <x:c r="O13" s="38"/>
-      <x:c r="P13" s="38"/>
+      <x:c r="D13" s="30">
+        <x:v>45767</x:v>
+      </x:c>
+      <x:c r="E13" s="31" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F13" s="39" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G13" s="31" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H13" s="32" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="31" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J13" s="31" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K13" s="31" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L13" s="34" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M13" s="34">
+        <x:v>45821</x:v>
+      </x:c>
+      <x:c r="N13" s="35" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O13" s="38" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="P13" s="36" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="Q13" s="37"/>
       <x:c r="R13" s="28"/>
       <x:c r="S13" s="28"/>
@@ -2829,19 +3030,43 @@
       <x:c r="C14" s="29">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D14" s="30"/>
-      <x:c r="E14" s="31"/>
-      <x:c r="F14" s="31"/>
-      <x:c r="G14" s="31"/>
-      <x:c r="H14" s="32"/>
+      <x:c r="D14" s="30">
+        <x:v>45768</x:v>
+      </x:c>
+      <x:c r="E14" s="31" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F14" s="63" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G14" s="31" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H14" s="32" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="I14" s="31"/>
-      <x:c r="J14" s="31"/>
-      <x:c r="K14" s="31"/>
-      <x:c r="L14" s="34"/>
-      <x:c r="M14" s="34"/>
-      <x:c r="N14" s="35"/>
-      <x:c r="O14" s="36"/>
-      <x:c r="P14" s="36"/>
+      <x:c r="J14" s="31" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="K14" s="31" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L14" s="34" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M14" s="34">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="N14" s="35" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O14" s="64" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="P14" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="Q14" s="37"/>
       <x:c r="R14" s="28"/>
       <x:c r="S14" s="28"/>
@@ -2923,7 +3148,7 @@
       <x:c r="M16" s="34"/>
       <x:c r="N16" s="35"/>
       <x:c r="O16" s="38"/>
-      <x:c r="P16" s="38"/>
+      <x:c r="P16" s="36"/>
       <x:c r="Q16" s="37"/>
       <x:c r="R16" s="28"/>
       <x:c r="S16" s="28"/>
@@ -3483,7 +3708,7 @@
       <x:c r="A30" s="46"/>
       <x:c r="B30" s="46"/>
       <x:c r="C30" s="47" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D30" s="48"/>
       <x:c r="E30" s="48"/>
@@ -3521,24 +3746,24 @@
       <x:c r="AK30" s="46"/>
     </x:row>
     <x:row r="31" spans="1:37" ht="33" customHeight="1">
-      <x:c r="A31" s="57"/>
-      <x:c r="B31" s="58"/>
-      <x:c r="C31" s="58"/>
-      <x:c r="D31" s="58"/>
-      <x:c r="E31" s="58"/>
-      <x:c r="F31" s="58"/>
-      <x:c r="G31" s="58"/>
-      <x:c r="H31" s="58"/>
-      <x:c r="I31" s="58"/>
-      <x:c r="J31" s="57"/>
-      <x:c r="K31" s="58"/>
-      <x:c r="L31" s="58"/>
-      <x:c r="M31" s="58"/>
-      <x:c r="N31" s="58"/>
-      <x:c r="O31" s="58"/>
-      <x:c r="P31" s="57"/>
-      <x:c r="Q31" s="58"/>
-      <x:c r="R31" s="58"/>
+      <x:c r="A31" s="60"/>
+      <x:c r="B31" s="61"/>
+      <x:c r="C31" s="61"/>
+      <x:c r="D31" s="61"/>
+      <x:c r="E31" s="61"/>
+      <x:c r="F31" s="61"/>
+      <x:c r="G31" s="61"/>
+      <x:c r="H31" s="61"/>
+      <x:c r="I31" s="61"/>
+      <x:c r="J31" s="60"/>
+      <x:c r="K31" s="61"/>
+      <x:c r="L31" s="61"/>
+      <x:c r="M31" s="61"/>
+      <x:c r="N31" s="61"/>
+      <x:c r="O31" s="61"/>
+      <x:c r="P31" s="60"/>
+      <x:c r="Q31" s="61"/>
+      <x:c r="R31" s="61"/>
       <x:c r="S31" s="1"/>
       <x:c r="T31" s="1"/>
       <x:c r="U31" s="1"/>
@@ -3563,7 +3788,7 @@
       <x:c r="A32" s="1"/>
       <x:c r="B32" s="1"/>
       <x:c r="C32" s="56" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D32" s="1"/>
       <x:c r="E32" s="1"/>
@@ -3604,7 +3829,7 @@
       <x:c r="A33" s="1"/>
       <x:c r="B33" s="1"/>
       <x:c r="C33" s="56" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D33" s="1"/>
       <x:c r="E33" s="1"/>
@@ -3645,7 +3870,7 @@
       <x:c r="A34" s="1"/>
       <x:c r="B34" s="1"/>
       <x:c r="C34" s="56" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D34" s="1"/>
       <x:c r="E34" s="1"/>
@@ -11336,12 +11561,14 @@
     <x:hyperlink ref="F9:F9" r:id="rId2"/>
     <x:hyperlink ref="O10:O10" r:id="rId3"/>
     <x:hyperlink ref="F10:F10" r:id="rId4"/>
+    <x:hyperlink ref="F14:F14" r:id="rId5"/>
+    <x:hyperlink ref="O14:O14" r:id="rId6"/>
   </x:hyperlinks>
   <x:pageMargins left="0.39347222447395324707" right="0.39347222447395324707" top="0.39347222447395324707" bottom="0.39347222447395324707" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="62" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;C&amp;"맑은 고딕,Regular"01+030(사)한국취업능력개발원 김혜경 상담사 C00000l01+030 H : 010-2432-8215 C00000l01+030 T : 02-3409-8216 C00000l000000 01+030F : 02-3409-8218 C00000l 01+030hancareer@nate.com</x:oddFooter>
   </x:headerFooter>
-  <x:legacyDrawing r:id="rId5"/>
+  <x:legacyDrawing r:id="rId7"/>
 </x:worksheet>
 </file>